--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra5f662136505496d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Re2c392191ecc4409"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Re2c392191ecc4409"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R24fa90c32c4e4a1b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R24fa90c32c4e4a1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R66541ad7511e405d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R66541ad7511e405d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rfd2a95787f104b55"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,12 +27,12 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -45,7 +45,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="E0E0E0"/>
+        <x:fgColor rgb="FFE0E0E0"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rfd2a95787f104b55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rc5b9cb326810470e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rc5b9cb326810470e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rcc763adb59954a01"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rcc763adb59954a01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2e357e8193874072"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2e357e8193874072"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R708185e288844594"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R708185e288844594"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R25f2a43765ab4d01"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R25f2a43765ab4d01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra82d29298b68458f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra82d29298b68458f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra941fe12bf5b4b21"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra941fe12bf5b4b21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rd290f615f9e643ba"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rd290f615f9e643ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R8abe3079a1414ce4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R8abe3079a1414ce4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2ddf80ecea534de6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2ddf80ecea534de6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R1b67c125f8f04f23"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R1b67c125f8f04f23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R06fbf4c71e28420b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R06fbf4c71e28420b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R248feaa902a04dbb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R248feaa902a04dbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rf47b1c9a0c264ef4"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rf47b1c9a0c264ef4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R1f2795879d614f9e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R1f2795879d614f9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb226041a92614003"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb226041a92614003"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R5f00608248c84f65"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R5f00608248c84f65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb4dc6c2fd258458a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb4dc6c2fd258458a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R10a349fee7064a29"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R10a349fee7064a29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R26aa981eef754489"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R26aa981eef754489"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R4c84c1b20b534598"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R4c84c1b20b534598"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R3ba37e7e2c404303"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R3ba37e7e2c404303"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R33f86f0aaf8e4b69"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R33f86f0aaf8e4b69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R8f84ad4207eb4d1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R8f84ad4207eb4d1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R66c36677847a4cd0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R66c36677847a4cd0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R31ebed5c9b9f4d4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R31ebed5c9b9f4d4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rbbed22705c8b4894"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rbbed22705c8b4894"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R3503a9d8d29648cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R3503a9d8d29648cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R776c7cd203434ebb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R776c7cd203434ebb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rc6d4e067478c4713"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rc6d4e067478c4713"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R4dc90e0d72af45c8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R4dc90e0d72af45c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rc63c35d01f214b64"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rc63c35d01f214b64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ree456fd4cd304b5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ree456fd4cd304b5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb6c994da404e41a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rb6c994da404e41a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2c859a5d1b7d4d20"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R2c859a5d1b7d4d20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R3f9ba18ff95b4e1e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R3f9ba18ff95b4e1e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R8863323debc4420e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R8863323debc4420e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R9bf36c7a1cef47c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="R9bf36c7a1cef47c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rfb778a348b2a4ec5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rfb778a348b2a4ec5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rbe344055580949db"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/14_ImportOptions.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Rbe344055580949db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImportOptions" sheetId="1" r:id="Ra88101a4778a45b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
